--- a/FluentdConfigGenerator/Fluentd_Configuration.xlsx
+++ b/FluentdConfigGenerator/Fluentd_Configuration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRepos\DetectionEningeering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRepos\DetectionEningeering\FluentdConfigGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03330FF7-592F-4CB9-84D2-506DA344483E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14860C8-6FC0-4A66-BB0F-554C6097BA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{B7A4E333-2AAC-449F-84E5-77086C7498E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{B7A4E333-2AAC-449F-84E5-77086C7498E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="79">
   <si>
     <t>tail</t>
   </si>
@@ -257,6 +257,24 @@
   </si>
   <si>
     <t>log.source</t>
+  </si>
+  <si>
+    <t>/var/log/auth.log</t>
+  </si>
+  <si>
+    <t>/var/log/dpkg.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>none\nmessage_key "auth_log</t>
+  </si>
+  <si>
+    <t>events.security.linux.*</t>
+  </si>
+  <si>
+    <t>Linux Events Matcher</t>
   </si>
 </sst>
 </file>
@@ -628,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7F7F98-AB2C-4BA9-935E-96B1725FF3CF}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -789,7 +807,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ref="C6:C19" si="1">_xlfn.CONCAT(B6,".pos")</f>
+        <f t="shared" ref="C6:C21" si="1">_xlfn.CONCAT(B6,".pos")</f>
         <v>/opt/zeek/logs/current/dns.log.pos</v>
       </c>
       <c r="D6" t="s">
@@ -799,14 +817,14 @@
         <v>4</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" ref="F6:F19" si="2">_xlfn.CONCAT("events.security.",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(B6,"/",-1),".",1))</f>
+        <f t="shared" ref="F6:F21" si="2">_xlfn.CONCAT("events.security.",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(B6,"/",-1),".",1))</f>
         <v>events.security.dns</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" ref="H6:H19" si="3">_xlfn.CONCAT("Zeek ",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(B6,"/",-1),".",1)," (JSON)")</f>
+        <f t="shared" ref="H6:H21" si="3">_xlfn.CONCAT("Zeek ",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(B6,"/",-1),".",1)," (JSON)")</f>
         <v>Zeek dns (JSON)</v>
       </c>
     </row>
@@ -1185,6 +1203,69 @@
       <c r="H19" t="str">
         <f t="shared" si="3"/>
         <v>Zeek weird (JSON)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>/var/log/auth.log.pos</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="2"/>
+        <v>events.security.auth</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="str">
+        <f>_xlfn.CONCAT("Zeek ",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(B20,"/",-1),".",1)," (none)")</f>
+        <v>Zeek auth (none)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>/var/log/dpkg.log.pos</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="2"/>
+        <v>events.security.dpkg</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="str">
+        <f>_xlfn.CONCAT("Zeek ",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(B21,"/",-1),".",1)," (none)")</f>
+        <v>Zeek dpkg (none)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1194,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9376998-6670-4FD0-AFE5-4799492A151C}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1298,6 +1379,35 @@
         <v>70</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4">
+        <v>9200</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1307,7 +1417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF53E837-546C-4C7C-AD30-20357C6B03D3}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -1498,23 +1608,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fca74878-949c-4132-8039-b3230268d1cd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC7BA586F1E139459B01CB7592672435" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1a993a63110bcf3436c2efee542f2d4b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fca74878-949c-4132-8039-b3230268d1cd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b9a58bd73ff226e41c0804ab27af1867" ns3:_="">
     <xsd:import namespace="fca74878-949c-4132-8039-b3230268d1cd"/>
@@ -1664,31 +1757,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79000AC2-9BD6-4583-8611-146AA4351277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="fca74878-949c-4132-8039-b3230268d1cd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D7EC55B-6368-4B45-B019-84A6E163CC64}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fca74878-949c-4132-8039-b3230268d1cd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4102822-FF4F-4C79-AAC8-AE68DDA687F2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1704,4 +1790,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D7EC55B-6368-4B45-B019-84A6E163CC64}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79000AC2-9BD6-4583-8611-146AA4351277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="fca74878-949c-4132-8039-b3230268d1cd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>